--- a/ThinkAloud.xlsx
+++ b/ThinkAloud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\Ludovic\Serieux\Scolaire\8.EPFL\Master\Semestre 4\Projet de semestre\First step\Stage 2\Debuggin-Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A13EF2-D8A0-4B6D-95AD-0396A6FE65E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B66EED4-C116-4E52-89A0-8E2DD17EFD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{265AA0F2-F35C-4C7A-A5B4-897DCED0F509}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{265AA0F2-F35C-4C7A-A5B4-897DCED0F509}"/>
   </bookViews>
   <sheets>
     <sheet name="Exo1a" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Time</t>
   </si>
@@ -39,6 +39,42 @@
   </si>
   <si>
     <t>Remarques</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Questionnaire</t>
+  </si>
+  <si>
+    <t>Lecon</t>
+  </si>
+  <si>
+    <t>Filmer écran</t>
+  </si>
+  <si>
+    <t>Exercices</t>
+  </si>
+  <si>
+    <t>Think Aloud</t>
+  </si>
+  <si>
+    <t>Setup arène</t>
+  </si>
+  <si>
+    <t>GoPro</t>
+  </si>
+  <si>
+    <t>Verifier Thymio</t>
+  </si>
+  <si>
+    <t>Filmer ecran</t>
+  </si>
+  <si>
+    <t>Scotcher Thymio</t>
+  </si>
+  <si>
+    <t>Create branche</t>
   </si>
 </sst>
 </file>
@@ -400,18 +436,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100B7F8F-8071-47F6-956B-B2D724DF1A11}">
-  <dimension ref="A1:C375"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="8" width="11.5546875" style="1"/>
+    <col min="9" max="9" width="15" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,92 +460,128 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="str">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <f ca="1">IF(B2&lt;&gt;"",IF(A2&lt;&gt;"",A2,NOW()),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>45411.578125231485</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">IF(B3&lt;&gt;"",IF(A3&lt;&gt;"",A3,NOW()-A$2),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" ref="A4:A67" ca="1" si="0">IF(B4&lt;&gt;"",IF(A4&lt;&gt;"",A4,NOW()-A$2),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -2674,10 +2748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32035-EA1F-4687-9C01-B7696BBD01DA}">
-  <dimension ref="A1:C375"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2685,7 +2759,7 @@
     <col min="1" max="1" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2696,94 +2770,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">IF(B2&lt;&gt;"",IF(A2&lt;&gt;"",A2,NOW()),"")</f>
         <v/>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">IF(B3&lt;&gt;"",IF(A3&lt;&gt;"",A3,NOW()-A$2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" ref="A4:A67" ca="1" si="0">IF(B4&lt;&gt;"",IF(A4&lt;&gt;"",A4,NOW()-A$2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4950,10 +5027,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A400A284-4F21-4F94-B315-3801754EF2F3}">
-  <dimension ref="A1:C375"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C29"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4961,7 +5038,7 @@
     <col min="1" max="1" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4972,94 +5049,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">IF(B2&lt;&gt;"",IF(A2&lt;&gt;"",A2,NOW()),"")</f>
         <v/>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">IF(B3&lt;&gt;"",IF(A3&lt;&gt;"",A3,NOW()-A$2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" ref="A4:A67" ca="1" si="0">IF(B4&lt;&gt;"",IF(A4&lt;&gt;"",A4,NOW()-A$2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -7226,10 +7306,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E87F3D4-A269-4AA9-86FD-9D2E58F0FAFF}">
-  <dimension ref="A1:C375"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7237,7 +7317,7 @@
     <col min="1" max="1" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7248,106 +7328,109 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">IF(B2&lt;&gt;"",IF(A2&lt;&gt;"",A2,NOW()),"")</f>
         <v/>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">IF(B3&lt;&gt;"",IF(A3&lt;&gt;"",A3,NOW()-A$2),"")</f>
         <v/>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" ref="A4:A67" ca="1" si="0">IF(B4&lt;&gt;"",IF(A4&lt;&gt;"",A4,NOW()-A$2),"")</f>
         <v/>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -7360,7 +7443,7 @@
         <v/>
       </c>
       <c r="C17" s="3" t="str">
-        <f t="shared" ref="C10:C66" si="1">IF(B17="Ok",A17-$A$2,"")</f>
+        <f t="shared" ref="C17:C66" si="1">IF(B17="Ok",A17-$A$2,"")</f>
         <v/>
       </c>
     </row>
@@ -10379,10 +10462,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA46E34E-E6AF-4DD4-BA66-24E35AC46CB1}">
-  <dimension ref="A1:C375"/>
+  <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E25"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10390,7 +10473,7 @@
     <col min="1" max="1" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10401,105 +10484,108 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">IF(B2&lt;&gt;"",IF(A2&lt;&gt;"",A2,NOW()),"")</f>
         <v/>
       </c>
       <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">IF(B3&lt;&gt;"",IF(A3&lt;&gt;"",A3,NOW()-A$2),"")</f>
         <v/>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" ref="A4:A67" ca="1" si="0">IF(B4&lt;&gt;"",IF(A4&lt;&gt;"",A4,NOW()-A$2),"")</f>
         <v/>
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -12703,19 +12789,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9172FC8D-98A7-45C0-B60B-4E0BCAB3DE46}">
-  <dimension ref="A1:C376"/>
+  <dimension ref="A1:I376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12726,91 +12813,97 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="str">
         <f ca="1">IF(B2&lt;&gt;"",IF(A2&lt;&gt;"",A2,NOW()),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="str">
         <f ca="1">IF(B3&lt;&gt;"",IF(A3&lt;&gt;"",A3,NOW()-A$2),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="str">
         <f t="shared" ref="A4:A68" ca="1" si="0">IF(B4&lt;&gt;"",IF(A4&lt;&gt;"",A4,NOW()-A$2),"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>

--- a/ThinkAloud.xlsx
+++ b/ThinkAloud.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\Ludovic\Serieux\Scolaire\8.EPFL\Master\Semestre 4\Projet de semestre\First step\Stage 2\Debuggin-Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B66EED4-C116-4E52-89A0-8E2DD17EFD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F430C1E6-2137-4BBE-9EDA-FCFBEA6077AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{265AA0F2-F35C-4C7A-A5B4-897DCED0F509}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>Time</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Remarques</t>
-  </si>
-  <si>
-    <t>Start</t>
   </si>
   <si>
     <t>Questionnaire</t>
@@ -439,7 +436,7 @@
   <dimension ref="A1:I375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,15 +458,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="2" t="str">
         <f ca="1">IF(B2&lt;&gt;"",IF(A2&lt;&gt;"",A2,NOW()),"")</f>
-        <v>45411.578125231485</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v/>
       </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -478,7 +472,7 @@
         <v/>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -487,7 +481,7 @@
         <v/>
       </c>
       <c r="I4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -496,7 +490,7 @@
         <v/>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -505,7 +499,7 @@
         <v/>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -514,7 +508,7 @@
         <v/>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -523,7 +517,7 @@
         <v/>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -532,7 +526,7 @@
         <v/>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -542,7 +536,7 @@
       </c>
       <c r="C10" s="3"/>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -551,7 +545,7 @@
         <v/>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -560,7 +554,7 @@
         <v/>
       </c>
       <c r="I12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2778,7 +2772,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -5057,7 +5051,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -7336,7 +7330,7 @@
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -10491,7 +10485,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -12819,7 +12813,7 @@
         <v/>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -12828,7 +12822,7 @@
         <v/>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
